--- a/xlsx/FishBuffData.xlsx
+++ b/xlsx/FishBuffData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AE1C0-7B97-4B23-AF95-D87CC7D9F039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8586FF2-0BE7-4F87-8916-F51084DF1C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6255" yWindow="1575" windowWidth="21645" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,12 +32,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SpeedUp</t>
-  </si>
-  <si>
-    <t>BeSucked</t>
-  </si>
-  <si>
     <t>【持续时间】【初始速度倍率】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -55,6 +49,14 @@
   </si>
   <si>
     <t>被吸吮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffSpeedUp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffBeSucked</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1288,7 +1290,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1319,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1336,16 +1338,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
